--- a/adresy.xlsx
+++ b/adresy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\priv\studia\sem3\systemy_operacujne\lab10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584B6B54-4D5B-4F15-8AA3-F9EC444BD147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF374D4C-93E2-4094-98C4-D31244F7BDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16995" yWindow="3420" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8235" yWindow="3345" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP-Addresses" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>192.168.1.1</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>2137.1111.22</t>
+  </si>
+  <si>
+    <t>Adresy</t>
   </si>
 </sst>
 </file>
@@ -354,31 +357,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
